--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H2">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I2">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J2">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N2">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q2">
-        <v>13.581377862397</v>
+        <v>17.71954878218778</v>
       </c>
       <c r="R2">
-        <v>122.232400761573</v>
+        <v>159.47593903969</v>
       </c>
       <c r="S2">
-        <v>0.0002261903705856898</v>
+        <v>0.0003242830420088512</v>
       </c>
       <c r="T2">
-        <v>0.0002261903705856898</v>
+        <v>0.0003242830420088513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H3">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I3">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J3">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.798788</v>
       </c>
       <c r="O3">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P3">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q3">
-        <v>291.2467352700875</v>
+        <v>351.8756473227675</v>
       </c>
       <c r="R3">
-        <v>2621.220617430788</v>
+        <v>3166.880825904907</v>
       </c>
       <c r="S3">
-        <v>0.004850554019633661</v>
+        <v>0.006439628160134915</v>
       </c>
       <c r="T3">
-        <v>0.004850554019633663</v>
+        <v>0.006439628160134916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H4">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I4">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J4">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N4">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q4">
-        <v>75.79946907548788</v>
+        <v>82.69078680372843</v>
       </c>
       <c r="R4">
-        <v>682.1952216793909</v>
+        <v>744.2170812335559</v>
       </c>
       <c r="S4">
-        <v>0.00126239842334798</v>
+        <v>0.001513312794836734</v>
       </c>
       <c r="T4">
-        <v>0.001262398423347981</v>
+        <v>0.001513312794836734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H5">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I5">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J5">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N5">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q5">
-        <v>3.769384501962555</v>
+        <v>2.758226859862444</v>
       </c>
       <c r="R5">
-        <v>33.92446051766299</v>
+        <v>24.82404173876199</v>
       </c>
       <c r="S5">
-        <v>6.277702351095544E-05</v>
+        <v>5.047793302535102E-05</v>
       </c>
       <c r="T5">
-        <v>6.277702351095546E-05</v>
+        <v>5.047793302535102E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J6">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N6">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q6">
-        <v>21.086498381883</v>
+        <v>22.77115963455667</v>
       </c>
       <c r="R6">
-        <v>189.778485436947</v>
+        <v>204.94043671101</v>
       </c>
       <c r="S6">
-        <v>0.000351184020625642</v>
+        <v>0.0004167318822354054</v>
       </c>
       <c r="T6">
-        <v>0.0003511840206256419</v>
+        <v>0.0004167318822354054</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J7">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.798788</v>
       </c>
       <c r="O7">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P7">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q7">
         <v>452.1907772704813</v>
@@ -883,10 +883,10 @@
         <v>4069.716995434332</v>
       </c>
       <c r="S7">
-        <v>0.007530988425661071</v>
+        <v>0.008275481651599579</v>
       </c>
       <c r="T7">
-        <v>0.007530988425661071</v>
+        <v>0.008275481651599578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J8">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N8">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q8">
-        <v>117.6865409534943</v>
+        <v>106.2648451019027</v>
       </c>
       <c r="R8">
-        <v>1059.178868581449</v>
+        <v>956.383605917124</v>
       </c>
       <c r="S8">
-        <v>0.001960004543053095</v>
+        <v>0.001944738415849759</v>
       </c>
       <c r="T8">
-        <v>0.001960004543053095</v>
+        <v>0.001944738415849758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J9">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N9">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q9">
-        <v>5.852360563606333</v>
+        <v>3.544561145788667</v>
       </c>
       <c r="R9">
-        <v>52.671245072457</v>
+        <v>31.901050312098</v>
       </c>
       <c r="S9">
-        <v>9.746784296078506E-05</v>
+        <v>6.486852938931386E-05</v>
       </c>
       <c r="T9">
-        <v>9.746784296078503E-05</v>
+        <v>6.486852938931384E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H10">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N10">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q10">
-        <v>31.04467241588599</v>
+        <v>25.54416642171334</v>
       </c>
       <c r="R10">
-        <v>279.402051742974</v>
+        <v>229.89749779542</v>
       </c>
       <c r="S10">
-        <v>0.0005170319263336711</v>
+        <v>0.0004674803006914272</v>
       </c>
       <c r="T10">
-        <v>0.0005170319263336712</v>
+        <v>0.0004674803006914272</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H11">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.798788</v>
       </c>
       <c r="O11">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P11">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q11">
-        <v>665.7394838921269</v>
+        <v>507.2572786952827</v>
       </c>
       <c r="R11">
-        <v>5991.655355029144</v>
+        <v>4565.315508257544</v>
       </c>
       <c r="S11">
-        <v>0.01108752455757897</v>
+        <v>0.009283246172825416</v>
       </c>
       <c r="T11">
-        <v>0.01108752455757897</v>
+        <v>0.009283246172825416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H12">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N12">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q12">
-        <v>173.2644294701398</v>
+        <v>119.2054744520453</v>
       </c>
       <c r="R12">
-        <v>1559.379865231258</v>
+        <v>1072.849270068408</v>
       </c>
       <c r="S12">
-        <v>0.002885623675906782</v>
+        <v>0.002181563106069392</v>
       </c>
       <c r="T12">
-        <v>0.002885623675906783</v>
+        <v>0.002181563106069392</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H13">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N13">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q13">
-        <v>8.61615870337711</v>
+        <v>3.976207679057334</v>
       </c>
       <c r="R13">
-        <v>77.54542833039399</v>
+        <v>35.785869111516</v>
       </c>
       <c r="S13">
-        <v>0.0001434973792709146</v>
+        <v>7.276803363750587E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001434973792709146</v>
+        <v>7.276803363750587E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H14">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I14">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J14">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N14">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O14">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P14">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q14">
-        <v>2055.741360171544</v>
+        <v>2061.748868038051</v>
       </c>
       <c r="R14">
-        <v>18501.6722415439</v>
+        <v>18555.73981234246</v>
       </c>
       <c r="S14">
-        <v>0.0342372404918469</v>
+        <v>0.03773178442657478</v>
       </c>
       <c r="T14">
-        <v>0.0342372404918469</v>
+        <v>0.03773178442657478</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H15">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I15">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J15">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.798788</v>
       </c>
       <c r="O15">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P15">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q15">
-        <v>44084.47845099428</v>
+        <v>40942.30764426383</v>
       </c>
       <c r="R15">
-        <v>396760.3060589486</v>
+        <v>368480.7687983745</v>
       </c>
       <c r="S15">
-        <v>0.7342027163175748</v>
+        <v>0.7492795800246593</v>
       </c>
       <c r="T15">
-        <v>0.7342027163175748</v>
+        <v>0.7492795800246592</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H16">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I16">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J16">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N16">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O16">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P16">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q16">
-        <v>11473.36487036101</v>
+        <v>9621.443423048233</v>
       </c>
       <c r="R16">
-        <v>103260.283833249</v>
+        <v>86592.99080743409</v>
       </c>
       <c r="S16">
-        <v>0.1910825748451539</v>
+        <v>0.1760807219243938</v>
       </c>
       <c r="T16">
-        <v>0.1910825748451539</v>
+        <v>0.1760807219243938</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H17">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I17">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J17">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N17">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O17">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P17">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q17">
-        <v>570.5518027392862</v>
+        <v>320.9320494565898</v>
       </c>
       <c r="R17">
-        <v>5134.966224653575</v>
+        <v>2888.388445109308</v>
       </c>
       <c r="S17">
-        <v>0.00950222613695513</v>
+        <v>0.005873333602068647</v>
       </c>
       <c r="T17">
-        <v>0.00950222613695513</v>
+        <v>0.005873333602068646</v>
       </c>
     </row>
   </sheetData>
